--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKI-19-20\CAU TRUC DU LIEU VA GIAI THUAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKI-19-20\CAU TRUC DU LIEU VA GIAI THUAT\CuoiKi\MadiTuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Triển khai áp dụng thuật toán</t>
   </si>
   <si>
-    <t>Ứng dụng ngăn xếp giải bài toán mã đi tuần viết code C++</t>
-  </si>
-  <si>
-    <t>Tìm hiểu và xây dựng code C# cho bài toán mã đi tuần bằng thuật toán Heuristic không dùng ngăn xếp.</t>
-  </si>
-  <si>
     <t>Triển khai xây dựng Slide</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Tổng hợp lại tất cả các nội dung đã tìm hiểu được, đánh giá cá nhân</t>
+  </si>
+  <si>
+    <t>Xây dựng thuật toán Stack mã đi tuần bằng ngôn ngữ code C++</t>
+  </si>
+  <si>
+    <t>Tìm hiểu và xây dựng code C# ứng dụng Stack mã đi tuần</t>
   </si>
 </sst>
 </file>
@@ -210,15 +210,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +568,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -582,16 +582,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -890,16 +890,16 @@
       <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>43722</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>43729</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>43722</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>43729</v>
       </c>
       <c r="I10" s="8"/>
@@ -928,10 +928,10 @@
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -958,10 +958,10 @@
       <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -988,10 +988,10 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1060,25 +1060,23 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>22</v>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="18"/>
+      <c r="E16" s="17">
         <v>43730</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>43735</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>43730</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>43735</v>
       </c>
       <c r="I16" s="8"/>
@@ -1098,13 +1096,13 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1122,24 +1120,24 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>23</v>
+      <c r="B18" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>43731</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>43736</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>43731</v>
       </c>
-      <c r="H18" s="18">
-        <v>43736</v>
+      <c r="H18" s="17">
+        <v>43796</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1158,13 +1156,13 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1207,7 +1205,7 @@
     </row>
     <row r="21" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -1234,7 +1232,7 @@
     </row>
     <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>6</v>
@@ -1268,7 +1266,7 @@
     </row>
     <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1295,7 +1293,7 @@
     </row>
     <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>6</v>
@@ -20853,6 +20851,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="H10:H13"/>
@@ -20860,17 +20869,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -120,12 +120,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -145,6 +139,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,56 +168,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -565,33 +569,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="76.140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="15" customWidth="1"/>
     <col min="9" max="23" width="8.7109375" style="2" customWidth="1"/>
     <col min="24" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -890,16 +898,16 @@
       <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="18">
         <v>43722</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>43729</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="18">
         <v>43722</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <v>43729</v>
       </c>
       <c r="I10" s="8"/>
@@ -928,10 +936,10 @@
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -958,10 +966,10 @@
       <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -988,10 +996,10 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1009,6 +1017,9 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1033,16 +1044,27 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>21</v>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="18">
+        <v>43730</v>
+      </c>
+      <c r="F15" s="18">
+        <v>43735</v>
+      </c>
+      <c r="G15" s="18">
+        <v>43730</v>
+      </c>
+      <c r="H15" s="18">
+        <v>43735</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1060,25 +1082,13 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17">
-        <v>43730</v>
-      </c>
-      <c r="F16" s="17">
-        <v>43735</v>
-      </c>
-      <c r="G16" s="17">
-        <v>43730</v>
-      </c>
-      <c r="H16" s="17">
-        <v>43735</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1096,13 +1106,25 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="18">
+        <v>43731</v>
+      </c>
+      <c r="F17" s="18">
+        <v>43736</v>
+      </c>
+      <c r="G17" s="18">
+        <v>43731</v>
+      </c>
+      <c r="H17" s="18">
+        <v>43796</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1120,25 +1142,13 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="17">
-        <v>43731</v>
-      </c>
-      <c r="F18" s="17">
-        <v>43736</v>
-      </c>
-      <c r="G18" s="17">
-        <v>43731</v>
-      </c>
-      <c r="H18" s="17">
-        <v>43796</v>
-      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1156,13 +1166,13 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1180,6 +1190,9 @@
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1204,16 +1217,27 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>22</v>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>43737</v>
+      </c>
+      <c r="F21" s="7">
+        <v>43741</v>
+      </c>
+      <c r="G21" s="7">
+        <v>43796</v>
+      </c>
+      <c r="H21" s="7">
+        <v>43797</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1231,23 +1255,16 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>23</v>
+      <c r="A22" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>43737</v>
-      </c>
-      <c r="F22" s="7">
-        <v>43741</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1265,16 +1282,27 @@
       <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>24</v>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>43742</v>
+      </c>
+      <c r="F23" s="7">
+        <v>43753</v>
+      </c>
+      <c r="G23" s="7">
+        <v>43796</v>
+      </c>
+      <c r="H23" s="17">
+        <v>43797</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1292,21 +1320,11 @@
       <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="7">
-        <v>43742</v>
-      </c>
-      <c r="F24" s="7">
-        <v>43753</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
@@ -1325,38 +1343,34 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -1376,7 +1390,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -20829,48 +20843,28 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
-    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="12"/>
-      <c r="F1000" s="12"/>
-      <c r="G1000" s="12"/>
-      <c r="H1000" s="12"/>
-      <c r="I1000" s="13"/>
-      <c r="J1000" s="13"/>
-      <c r="K1000" s="13"/>
-      <c r="L1000" s="13"/>
-      <c r="M1000" s="13"/>
-      <c r="N1000" s="13"/>
-      <c r="O1000" s="13"/>
-      <c r="P1000" s="13"/>
-      <c r="Q1000" s="13"/>
-      <c r="R1000" s="13"/>
-      <c r="S1000" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>